--- a/data/trans_bre/P05B_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P05B_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.0515575120333657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.168775957550954</v>
+        <v>0.1687759575509547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.207612139915938</v>
@@ -649,7 +649,7 @@
         <v>0.02532068327124011</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05845346948457144</v>
+        <v>0.05845346948457168</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.1121301193244</v>
+        <v>2.127774309245341</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.846673829295916</v>
+        <v>-1.817315936441253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.235957298486029</v>
+        <v>-1.154561267433266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.884476501862138</v>
+        <v>-2.048337943815199</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4003366020455865</v>
+        <v>0.3912520046320218</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5252505416761184</v>
+        <v>-0.5099939488075459</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4643020798378536</v>
+        <v>-0.41831184644164</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4343605890609866</v>
+        <v>-0.4700630404294699</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.823533749923075</v>
+        <v>6.88825261189463</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.064479473097511</v>
+        <v>1.241024961247034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.33058031568538</v>
+        <v>1.157574932595243</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.206907209980657</v>
+        <v>2.017281295805685</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.461020199130312</v>
+        <v>2.693803263541735</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5529901644277976</v>
+        <v>0.6843770214278323</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.021063753398591</v>
+        <v>0.8460200595243972</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.514717793756953</v>
+        <v>1.32993090253063</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.4616824041502635</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.2997195615419775</v>
+        <v>-0.2997195615419774</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.04624676740597905</v>
@@ -749,7 +749,7 @@
         <v>0.3033600380744886</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2732874042747688</v>
+        <v>-0.2732874042747687</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.801847661956193</v>
+        <v>-1.90785119434262</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1415734791078988</v>
+        <v>-0.1179619262546576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.7246472453583885</v>
+        <v>-0.7391797270854454</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.416718358783251</v>
+        <v>-1.434510051509059</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3883659200260989</v>
+        <v>-0.4285702614234874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2254420531532543</v>
+        <v>-0.166864019554973</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3536174500757712</v>
+        <v>-0.3756063285424321</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7309189305602003</v>
+        <v>-0.7487692414956636</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.440693966114162</v>
+        <v>1.493120845757729</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.013763355003646</v>
+        <v>2.026660193442854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.703269945986856</v>
+        <v>1.735116832982538</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5094734993234065</v>
+        <v>0.4878134675417894</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4850429741805002</v>
+        <v>0.5217035756131231</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.031888480341551</v>
+        <v>4.281676450311225</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.875790256039701</v>
+        <v>1.936449739134053</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.336592663076346</v>
+        <v>0.9521129766903781</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2571714549198016</v>
+        <v>-0.1474539250776294</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.65731389002929</v>
+        <v>-1.600559617331037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2214614907872647</v>
+        <v>-0.1855028728756638</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3926200308433501</v>
+        <v>0.3624678257322679</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1267954663213431</v>
+        <v>-0.1062893761520028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8435398626345613</v>
+        <v>-0.8427640734209949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2706605114154655</v>
+        <v>-0.2368040318109542</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.4556966153768801</v>
+        <v>0.6412274009643018</v>
       </c>
     </row>
     <row r="12">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.594533470811219</v>
+        <v>2.585804792061647</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2893239300612681</v>
+        <v>0.243461862853893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.106175656148229</v>
+        <v>2.118952267918053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.53757988973736</v>
+        <v>1.456047653672393</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.904052737388977</v>
+        <v>1.877593815836885</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.56341195477919</v>
+        <v>0.5579965941042239</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.429809699105176</v>
+        <v>4.50051021687095</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -935,7 +935,7 @@
         <v>2.608006770337935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.04885680698138942</v>
+        <v>-0.04885680698138925</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3796494372308359</v>
@@ -947,7 +947,7 @@
         <v>6.463408807543106</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.04479564415053746</v>
+        <v>-0.04479564415053731</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.567452798696956</v>
+        <v>-1.763682852099572</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.742816680191985</v>
+        <v>-1.6224615799284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.130056513814626</v>
+        <v>1.18692758286459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8659895143307419</v>
+        <v>-0.9082348114554969</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4301105596773648</v>
+        <v>-0.4348734961036967</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8781673500904779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6147738129175198</v>
+        <v>0.788600378772087</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6037525639988698</v>
+        <v>-0.5799844928582776</v>
       </c>
     </row>
     <row r="15">
@@ -990,26 +990,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.680213819663841</v>
+        <v>3.82904056010934</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.001835433286158</v>
+        <v>1.158038441258163</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.554758869837533</v>
+        <v>4.769130662725405</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.806903727091864</v>
+        <v>0.7559508158632482</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.217657937497281</v>
+        <v>2.513960730055709</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.492043691551888</v>
+        <v>3.554801420054341</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>1.260606312224736</v>
+        <v>1.183413686842728</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>0.7471257389835846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2283691003934127</v>
+        <v>0.2283691003934128</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5889922023646743</v>
@@ -1045,7 +1045,7 @@
         <v>0.5452094690823108</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2150153157905021</v>
+        <v>0.2150153157905023</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7736261015675359</v>
+        <v>0.8673284138833312</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6572651413335268</v>
+        <v>-0.5706497224425168</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03420899664622591</v>
+        <v>0.1668065757529016</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3874411723303435</v>
+        <v>-0.2776679454005646</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2176687690790931</v>
+        <v>0.2517613905837068</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3397301014933036</v>
+        <v>-0.3086238030444843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01663069315553952</v>
+        <v>0.08488887467838532</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2743173521100064</v>
+        <v>-0.2085057445836034</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.683254266096012</v>
+        <v>2.793360085354275</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6384629881885158</v>
+        <v>0.606216906435198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.4214213807985</v>
+        <v>1.457479200245634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6936267058775764</v>
+        <v>0.7196774638794111</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.058716701518406</v>
+        <v>1.092187024776792</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4990054254090278</v>
+        <v>0.4683050717834675</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.292633870990656</v>
+        <v>1.313240601308845</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8629881636435844</v>
+        <v>0.9374333855366977</v>
       </c>
     </row>
     <row r="19">
